--- a/Archivos/REPORTE FINAL.xlsx
+++ b/Archivos/REPORTE FINAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Proyect-CFE-2.0\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4445DE9-E996-430C-9E80-13F5C73E4C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B871D-23B7-447E-90E0-C58B816BE51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="513" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="ICM (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ICM (2)'!$C$8:$F$172</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ICM (2)'!$A$2:$G$171</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ICM (2)'!$2:$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ICM (2)'!$C$7:$F$171</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ICM (2)'!$A$2:$G$170</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'ICM (2)'!$2:$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -884,7 +884,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -934,37 +934,16 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,6 +984,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1118,13 +1112,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2435680</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1173,13 +1167,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6441606</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>139701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>277571</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>139701</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1527,11 +1521,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G178"/>
+  <dimension ref="B2:G177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.05"/>
@@ -1547,136 +1541,147 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="2" customFormat="1" ht="27.8" customHeight="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:7" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" s="2" customFormat="1" ht="38.299999999999997" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="30" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="2:7" s="2" customFormat="1" ht="21.8" customHeight="1">
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="2:7" s="2" customFormat="1" ht="23.65" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="2:7" s="2" customFormat="1" ht="20.95" customHeight="1">
-      <c r="B6" s="23" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" s="2" customFormat="1" ht="26.35" customHeight="1">
+      <c r="B6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" s="2" customFormat="1" ht="20.95" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" ht="20.95" customHeight="1">
-      <c r="B8" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.55" customHeight="1">
-      <c r="B9" s="10">
+    <row r="8" spans="2:7" ht="16.55" customHeight="1">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>216.80533433503538</v>
+      </c>
+      <c r="G8" s="5">
+        <f>$D8*F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1">
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="5">
-        <v>216.80533433503538</v>
+      <c r="F9" s="7">
+        <v>296.62284320399971</v>
       </c>
       <c r="G9" s="5">
-        <f>$D9*F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1">
-      <c r="B10" s="12">
-        <v>2</v>
+        <f t="shared" ref="G9:G72" si="0">$D9*F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="47.95" customHeight="1">
+      <c r="B10" s="10">
+        <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7">
-        <v>296.62284320399971</v>
+        <v>10624.854193844116</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10:G73" si="0">$D10*F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="47.95" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30.1">
       <c r="B11" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="7">
-        <v>10624.854193844116</v>
+        <v>10624.856718997517</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
@@ -1685,109 +1690,111 @@
     </row>
     <row r="12" spans="2:7" ht="30.1">
       <c r="B12" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="7">
-        <v>10624.856718997517</v>
+        <v>6011.9554251713525</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30.1">
+    <row r="13" spans="2:7" ht="45.15">
       <c r="B13" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="D13" s="6">
+        <v>37</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="7">
-        <v>6011.9554251713525</v>
+        <v>2396.0977897340617</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="45.15">
-      <c r="B14" s="10">
-        <v>1</v>
+        <v>88655.618220160279</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30.1">
+      <c r="B14" s="12">
+        <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D14" s="6">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="7">
-        <v>2396.0977897340617</v>
+        <v>2886.4541945434808</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>88655.618220160279</v>
+        <v>28864.541945434808</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30.1">
-      <c r="B15" s="12">
-        <v>2</v>
+      <c r="B15" s="10">
+        <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="6">
-        <v>10</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="7">
-        <v>2886.4541945434808</v>
+        <v>3750.3741018613177</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>28864.541945434808</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30.1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="32.549999999999997" customHeight="1">
       <c r="B16" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="7">
-        <v>3750.3741018613177</v>
+        <v>2644.2737895524774</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="32.549999999999997" customHeight="1">
-      <c r="B17" s="10">
-        <v>3</v>
+        <v>7932.8213686574327</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="50.55" customHeight="1">
+      <c r="B17" s="12">
+        <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
@@ -1796,171 +1803,169 @@
         <v>8</v>
       </c>
       <c r="F17" s="7">
-        <v>2644.2737895524774</v>
+        <v>7839.3297425731453</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>7932.8213686574327</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="50.55" customHeight="1">
-      <c r="B18" s="12">
-        <v>4</v>
+        <v>23517.989227719438</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="49.85" customHeight="1">
+      <c r="B18" s="10">
+        <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="7">
-        <v>7839.3297425731453</v>
+        <v>8323.7243685731446</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>23517.989227719438</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="49.85" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30.1">
       <c r="B19" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="D19" s="6">
+        <v>14</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="7">
-        <v>8323.7243685731446</v>
+        <v>3371.9552200809576</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30.1">
-      <c r="B20" s="10">
-        <v>5</v>
+        <v>47207.37308113341</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="34.15" customHeight="1">
+      <c r="B20" s="12">
+        <v>6</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D20" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="7">
-        <v>3371.9552200809576</v>
+        <v>4975.8562634759119</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>47207.37308113341</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="34.15" customHeight="1">
-      <c r="B21" s="12">
-        <v>6</v>
+        <v>19903.425053903647</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="47.15" customHeight="1">
+      <c r="B21" s="10">
+        <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="7">
-        <v>4975.8562634759119</v>
+        <v>8963.7354467436217</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>19903.425053903647</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="47.15" customHeight="1">
+        <v>71709.883573948973</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D22" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="7">
-        <v>8963.7354467436217</v>
+        <v>2132.7848004712614</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>71709.883573948973</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="36" customHeight="1">
-      <c r="B23" s="10">
-        <v>8</v>
+        <v>4265.5696009425228</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="45.15">
+      <c r="B23" s="12">
+        <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="7">
-        <v>2132.7848004712614</v>
+        <v>3900.9186706359428</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>4265.5696009425228</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="45.15">
-      <c r="B24" s="12">
-        <v>9</v>
+        <v>3900.9186706359428</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="33.049999999999997" customHeight="1">
+      <c r="B24" s="10">
+        <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="7">
-        <v>3900.9186706359428</v>
+        <v>2725.9300088409027</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>3900.9186706359428</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="33.049999999999997" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B25" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="7">
-        <v>2725.9300088409027</v>
+        <v>4313.127809798023</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -1968,30 +1973,28 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B26" s="10">
-        <v>18</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>47</v>
+      <c r="B26" s="12">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7">
-        <v>4313.127809798023</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B27" s="12">
-        <v>19</v>
+      <c r="B27" s="10">
+        <v>20</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="4" t="s">
@@ -2005,16 +2008,18 @@
     </row>
     <row r="28" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B28" s="10">
-        <v>20</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>3378.9008905305968</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2022,29 +2027,27 @@
     </row>
     <row r="29" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B29" s="10">
-        <v>21</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="7">
-        <v>3378.9008905305968</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B30" s="10">
-        <v>22</v>
+      <c r="B30" s="12">
+        <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="4" t="s">
@@ -2057,17 +2060,17 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B31" s="12">
-        <v>23</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>50</v>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>8053.1702845980235</v>
+      </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2075,16 +2078,14 @@
     </row>
     <row r="32" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
-        <v>186</v>
+      <c r="C32" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="7">
-        <v>8053.1702845980235</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2093,7 +2094,7 @@
     <row r="33" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B33" s="10"/>
       <c r="C33" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="4" t="s">
@@ -2107,14 +2108,16 @@
     </row>
     <row r="34" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B34" s="10"/>
-      <c r="C34" s="15" t="s">
-        <v>188</v>
+      <c r="C34" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>5884.518988998022</v>
+      </c>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2122,16 +2125,14 @@
     </row>
     <row r="35" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
-        <v>185</v>
+      <c r="C35" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="7">
-        <v>5884.518988998022</v>
-      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2140,7 +2141,7 @@
     <row r="36" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B36" s="10"/>
       <c r="C36" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4" t="s">
@@ -2153,47 +2154,49 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B37" s="10"/>
-      <c r="C37" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="B37" s="10">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <v>7178.1740146632483</v>
+      </c>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28712.696058652993</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B38" s="10">
-        <v>10</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6">
-        <v>4</v>
-      </c>
+      <c r="B38" s="12">
+        <v>25</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="7">
-        <v>7178.1740146632483</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
-        <v>28712.696058652993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B39" s="12">
-        <v>25</v>
+      <c r="B39" s="10">
+        <v>26</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="4" t="s">
@@ -2207,16 +2210,18 @@
     </row>
     <row r="40" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B40" s="10">
-        <v>26</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7">
+        <v>6443.7058398860381</v>
+      </c>
       <c r="G40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2224,29 +2229,27 @@
     </row>
     <row r="41" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B41" s="10">
-        <v>27</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="7">
-        <v>6443.7058398860381</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B42" s="10">
-        <v>28</v>
+      <c r="B42" s="12">
+        <v>29</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="4" t="s">
@@ -2259,49 +2262,49 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B43" s="12">
-        <v>29</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="6"/>
+      <c r="B43" s="10">
+        <v>11</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="6">
+        <v>12</v>
+      </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>5157.4000582373019</v>
+      </c>
       <c r="G43" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61888.800698847626</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B44" s="10">
-        <v>11</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="6">
-        <v>12</v>
-      </c>
+      <c r="B44" s="12">
+        <v>31</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="7">
-        <v>5157.4000582373019</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>61888.800698847626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B45" s="12">
-        <v>31</v>
+      <c r="B45" s="10">
+        <v>32</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="4" t="s">
@@ -2315,48 +2318,48 @@
     </row>
     <row r="46" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B46" s="10">
-        <v>32</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="6">
+        <v>8</v>
+      </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7">
+        <v>7975.1400728337885</v>
+      </c>
       <c r="G46" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63801.120582670308</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B47" s="10">
-        <v>12</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="6">
-        <v>8</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="7">
-        <v>7975.1400728337885</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="5">
         <f t="shared" si="0"/>
-        <v>63801.120582670308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B48" s="10">
-        <v>34</v>
+      <c r="B48" s="12">
+        <v>35</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="4" t="s">
@@ -2369,49 +2372,49 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B49" s="12">
-        <v>35</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="6"/>
+      <c r="B49" s="10">
+        <v>13</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7">
+        <v>9959.7723098176648</v>
+      </c>
       <c r="G49" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9959.7723098176648</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B50" s="10">
-        <v>13</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
+      <c r="B50" s="12">
+        <v>37</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="7">
-        <v>9959.7723098176648</v>
-      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="5">
         <f t="shared" si="0"/>
-        <v>9959.7723098176648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B51" s="12">
-        <v>37</v>
+      <c r="B51" s="10">
+        <v>38</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="4" t="s">
@@ -2425,48 +2428,48 @@
     </row>
     <row r="52" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B52" s="10">
-        <v>38</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="6">
+        <v>6</v>
+      </c>
       <c r="E52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="7">
+        <v>13827.846284563848</v>
+      </c>
       <c r="G52" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82967.077707383083</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B53" s="10">
-        <v>14</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="6">
-        <v>6</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="7">
-        <v>13827.846284563848</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="5">
         <f t="shared" si="0"/>
-        <v>82967.077707383083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B54" s="10">
-        <v>40</v>
+      <c r="B54" s="12">
+        <v>41</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="4" t="s">
@@ -2479,49 +2482,49 @@
       </c>
     </row>
     <row r="55" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B55" s="12">
-        <v>41</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="6"/>
+      <c r="B55" s="10">
+        <v>15</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="7">
+        <v>5026.9663354695531</v>
+      </c>
       <c r="G55" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10053.932670939106</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B56" s="10">
-        <v>15</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="6">
-        <v>2</v>
-      </c>
+      <c r="B56" s="12">
+        <v>43</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="6"/>
       <c r="E56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="7">
-        <v>5026.9663354695531</v>
-      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="5">
         <f t="shared" si="0"/>
-        <v>10053.932670939106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B57" s="12">
-        <v>43</v>
+      <c r="B57" s="10">
+        <v>44</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="4" t="s">
@@ -2535,48 +2538,48 @@
     </row>
     <row r="58" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B58" s="10">
-        <v>44</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
       <c r="E58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>7257.6394148337858</v>
+      </c>
       <c r="G58" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14515.278829667572</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B59" s="10">
-        <v>16</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="6">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7">
-        <v>7257.6394148337858</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="5">
         <f t="shared" si="0"/>
-        <v>14515.278829667572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B60" s="10">
-        <v>46</v>
+      <c r="B60" s="12">
+        <v>47</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="4" t="s">
@@ -2589,47 +2592,47 @@
       </c>
     </row>
     <row r="61" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B61" s="12">
-        <v>47</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>67</v>
+      <c r="B61" s="10">
+        <v>48</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="7">
+        <v>8483.7272306176637</v>
+      </c>
       <c r="G61" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B62" s="10">
-        <v>48</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>68</v>
+      <c r="B62" s="12">
+        <v>49</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="7">
-        <v>8483.7272306176637</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B63" s="12">
-        <v>49</v>
+      <c r="B63" s="10">
+        <v>50</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="4" t="s">
@@ -2643,16 +2646,18 @@
     </row>
     <row r="64" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B64" s="10">
-        <v>50</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="7">
+        <v>13039.477956327699</v>
+      </c>
       <c r="G64" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2660,29 +2665,27 @@
     </row>
     <row r="65" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B65" s="10">
-        <v>51</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="7">
-        <v>13039.477956327699</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B66" s="10">
-        <v>52</v>
+      <c r="B66" s="12">
+        <v>53</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="4" t="s">
@@ -2695,47 +2698,47 @@
       </c>
     </row>
     <row r="67" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B67" s="12">
-        <v>53</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>71</v>
+      <c r="B67" s="10">
+        <v>54</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="7"/>
+      <c r="F67" s="7">
+        <v>12405.101044001372</v>
+      </c>
       <c r="G67" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B68" s="10">
-        <v>54</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>72</v>
+      <c r="B68" s="12">
+        <v>55</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="7">
-        <v>12405.101044001372</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B69" s="12">
-        <v>55</v>
+      <c r="B69" s="10">
+        <v>56</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="4" t="s">
@@ -2749,16 +2752,18 @@
     </row>
     <row r="70" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B70" s="10">
-        <v>56</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="7"/>
+      <c r="F70" s="7">
+        <v>11643.652348727703</v>
+      </c>
       <c r="G70" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2766,29 +2771,27 @@
     </row>
     <row r="71" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B71" s="10">
-        <v>57</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7">
-        <v>11643.652348727703</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B72" s="10">
-        <v>58</v>
+      <c r="B72" s="12">
+        <v>59</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="4" t="s">
@@ -2801,89 +2804,93 @@
       </c>
     </row>
     <row r="73" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B73" s="12">
-        <v>59</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="6"/>
+      <c r="B73" s="10">
+        <v>17</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3</v>
+      </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="7">
+        <v>409.45192356581168</v>
+      </c>
       <c r="G73" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G73:G136" si="1">$D73*F73</f>
+        <v>1228.355770697435</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B74" s="10">
-        <v>17</v>
+      <c r="B74" s="12">
+        <v>18</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D74" s="6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="7">
-        <v>409.45192356581168</v>
+        <v>578.8388628642582</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" ref="G74:G137" si="1">$D74*F74</f>
-        <v>1228.355770697435</v>
+        <f t="shared" si="1"/>
+        <v>12155.616120149421</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B75" s="12">
-        <v>18</v>
+      <c r="B75" s="10">
+        <v>62</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="6">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="E75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="7">
-        <v>578.8388628642582</v>
+        <v>1539.4157211430195</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" si="1"/>
-        <v>12155.616120149421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B76" s="10">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
       <c r="E76" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="7">
-        <v>1539.4157211430195</v>
+        <v>1193.2609137923853</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1193.2609137923853</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B77" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -2892,19 +2899,19 @@
         <v>9</v>
       </c>
       <c r="F77" s="7">
-        <v>1193.2609137923853</v>
+        <v>1726.5759948445345</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" si="1"/>
-        <v>1193.2609137923853</v>
+        <v>1726.5759948445345</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B78" s="10">
-        <v>20</v>
+      <c r="B78" s="12">
+        <v>21</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -2913,124 +2920,122 @@
         <v>9</v>
       </c>
       <c r="F78" s="7">
-        <v>1726.5759948445345</v>
+        <v>1862.8613227145293</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" si="1"/>
-        <v>1726.5759948445345</v>
+        <v>1862.8613227145293</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B79" s="12">
-        <v>21</v>
+      <c r="B79" s="10">
+        <v>22</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="7">
-        <v>1862.8613227145293</v>
+        <v>1767.9270409923849</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" si="1"/>
-        <v>1862.8613227145293</v>
+        <v>8839.6352049619254</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B80" s="10">
-        <v>22</v>
+      <c r="B80" s="12">
+        <v>23</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="7">
-        <v>1767.9270409923849</v>
+        <v>1375.1731975088312</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" si="1"/>
-        <v>8839.6352049619254</v>
+        <v>24753.117555158962</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B81" s="12">
-        <v>23</v>
+      <c r="B81" s="10">
+        <v>68</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="6">
-        <v>18</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D81" s="6"/>
       <c r="E81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="7">
-        <v>1375.1731975088312</v>
+        <v>2200.4574595088311</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" si="1"/>
-        <v>24753.117555158962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B82" s="10">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D82" s="6">
+        <v>10</v>
+      </c>
       <c r="E82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="7">
-        <v>2200.4574595088311</v>
+        <v>2453.6906744166054</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="34.950000000000003" customHeight="1">
+        <v>24536.906744166052</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="65.95" customHeight="1">
       <c r="B83" s="10">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="6">
-        <v>10</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D83" s="6"/>
       <c r="E83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="7">
-        <v>2453.6906744166054</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="5">
         <f t="shared" si="1"/>
-        <v>24536.906744166052</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="65.95" customHeight="1">
-      <c r="B84" s="10">
-        <v>70</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="64.900000000000006" customHeight="1">
+      <c r="B84" s="12">
+        <v>25</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="D84" s="6">
+        <v>533</v>
+      </c>
       <c r="E84" s="4" t="s">
         <v>153</v>
       </c>
@@ -3040,16 +3045,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="64.900000000000006" customHeight="1">
-      <c r="B85" s="12">
-        <v>25</v>
+    <row r="85" spans="2:7" ht="66.650000000000006" customHeight="1">
+      <c r="B85" s="10">
+        <v>72</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="6">
-        <v>533</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="E85" s="4" t="s">
         <v>153</v>
       </c>
@@ -3059,12 +3062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="66.650000000000006" customHeight="1">
-      <c r="B86" s="10">
-        <v>72</v>
+    <row r="86" spans="2:7" ht="64.900000000000006" customHeight="1">
+      <c r="B86" s="12">
+        <v>73</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="4" t="s">
@@ -3076,16 +3079,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="64.900000000000006" customHeight="1">
-      <c r="B87" s="12">
-        <v>73</v>
+    <row r="87" spans="2:7" ht="67.2" customHeight="1">
+      <c r="B87" s="10">
+        <v>74</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="4" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="5">
@@ -3093,16 +3096,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="67.2" customHeight="1">
+    <row r="88" spans="2:7" ht="65.45" customHeight="1">
       <c r="B88" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="4" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="5">
@@ -3110,16 +3113,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="65.45" customHeight="1">
+    <row r="89" spans="2:7" ht="64.900000000000006" customHeight="1">
       <c r="B89" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="5">
@@ -3127,12 +3130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="64.900000000000006" customHeight="1">
-      <c r="B90" s="10">
-        <v>76</v>
+    <row r="90" spans="2:7" ht="63.55" customHeight="1">
+      <c r="B90" s="12">
+        <v>77</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="4" t="s">
@@ -3144,12 +3147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="63.55" customHeight="1">
-      <c r="B91" s="12">
-        <v>77</v>
+    <row r="91" spans="2:7" ht="60.2">
+      <c r="B91" s="10">
+        <v>78</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="4" t="s">
@@ -3161,31 +3164,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="60.2">
-      <c r="B92" s="10">
-        <v>78</v>
-      </c>
+    <row r="92" spans="2:7" ht="63.8" customHeight="1">
+      <c r="B92" s="10"/>
       <c r="C92" s="11" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F92" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
       <c r="G92" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="63.8" customHeight="1">
+    <row r="93" spans="2:7" ht="65.3" customHeight="1">
       <c r="B93" s="10"/>
       <c r="C93" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F93" s="7">
         <v>0</v>
@@ -3195,50 +3198,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="65.3" customHeight="1">
-      <c r="B94" s="10"/>
+    <row r="94" spans="2:7" ht="36" customHeight="1">
+      <c r="B94" s="12">
+        <v>26</v>
+      </c>
       <c r="C94" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D94" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
+      </c>
       <c r="E94" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="16">
+        <v>2075.7867978954778</v>
+      </c>
+      <c r="G94" s="5">
+        <f t="shared" si="1"/>
+        <v>4151.5735957909556</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="33.6" customHeight="1">
+      <c r="B95" s="10">
+        <v>80</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F94" s="7">
-        <v>0</v>
-      </c>
-      <c r="G94" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="36" customHeight="1">
-      <c r="B95" s="12">
-        <v>26</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="6">
-        <v>2</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F95" s="16">
-        <v>2075.7867978954778</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="5">
         <f t="shared" si="1"/>
-        <v>4151.5735957909556</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="33.6" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="49.85" customHeight="1">
       <c r="B96" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="4" t="s">
@@ -3252,69 +3255,69 @@
     </row>
     <row r="97" spans="2:7" ht="49.85" customHeight="1">
       <c r="B97" s="10">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1366</v>
+      </c>
       <c r="E97" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="7"/>
+      <c r="F97" s="7">
+        <v>27.559455368552058</v>
+      </c>
       <c r="G97" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37646.216033442113</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="49.85" customHeight="1">
-      <c r="B98" s="10">
-        <v>27</v>
+      <c r="B98" s="12">
+        <v>28</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D98" s="6">
-        <v>1366</v>
+        <v>2</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="F98" s="7">
-        <v>27.559455368552058</v>
+        <v>17581.862705448773</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" si="1"/>
-        <v>37646.216033442113</v>
+        <v>35163.725410897547</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="49.85" customHeight="1">
-      <c r="B99" s="12">
-        <v>28</v>
+      <c r="B99" s="10">
+        <v>84</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" s="6">
-        <v>2</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="7">
-        <v>17581.862705448773</v>
-      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="5">
         <f t="shared" si="1"/>
-        <v>35163.725410897547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="49.85" customHeight="1">
-      <c r="B100" s="10">
-        <v>84</v>
+      <c r="B100" s="12">
+        <v>85</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="4" t="s">
@@ -3327,49 +3330,49 @@
       </c>
     </row>
     <row r="101" spans="2:7" ht="49.85" customHeight="1">
-      <c r="B101" s="12">
-        <v>85</v>
+      <c r="B101" s="10">
+        <v>29</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="D101" s="6">
+        <v>8</v>
+      </c>
       <c r="E101" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="7"/>
+      <c r="F101" s="7">
+        <v>22922.95521181096</v>
+      </c>
       <c r="G101" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="49.85" customHeight="1">
+        <v>183383.64169448768</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="51.05" customHeight="1">
       <c r="B102" s="10">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D102" s="6">
-        <v>8</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D102" s="6"/>
       <c r="E102" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="7">
-        <v>22922.95521181096</v>
-      </c>
+      <c r="F102" s="7"/>
       <c r="G102" s="5">
         <f t="shared" si="1"/>
-        <v>183383.64169448768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="51.05" customHeight="1">
       <c r="B103" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="4" t="s">
@@ -3382,15 +3385,15 @@
       </c>
     </row>
     <row r="104" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B104" s="10">
-        <v>88</v>
+      <c r="B104" s="12">
+        <v>89</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="4" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="5">
@@ -3399,11 +3402,11 @@
       </c>
     </row>
     <row r="105" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B105" s="12">
-        <v>89</v>
+      <c r="B105" s="10">
+        <v>90</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="4" t="s">
@@ -3416,11 +3419,11 @@
       </c>
     </row>
     <row r="106" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B106" s="10">
-        <v>90</v>
+      <c r="B106" s="12">
+        <v>91</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="4" t="s">
@@ -3433,11 +3436,11 @@
       </c>
     </row>
     <row r="107" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B107" s="12">
-        <v>91</v>
+      <c r="B107" s="10">
+        <v>92</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="4" t="s">
@@ -3451,10 +3454,10 @@
     </row>
     <row r="108" spans="2:7" ht="51.05" customHeight="1">
       <c r="B108" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="4" t="s">
@@ -3468,10 +3471,10 @@
     </row>
     <row r="109" spans="2:7" ht="51.05" customHeight="1">
       <c r="B109" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="4" t="s">
@@ -3484,11 +3487,11 @@
       </c>
     </row>
     <row r="110" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B110" s="10">
-        <v>94</v>
+      <c r="B110" s="12">
+        <v>95</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="4" t="s">
@@ -3501,11 +3504,11 @@
       </c>
     </row>
     <row r="111" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B111" s="12">
-        <v>95</v>
+      <c r="B111" s="10">
+        <v>96</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="4" t="s">
@@ -3518,11 +3521,11 @@
       </c>
     </row>
     <row r="112" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B112" s="10">
-        <v>96</v>
+      <c r="B112" s="12">
+        <v>97</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="4" t="s">
@@ -3535,11 +3538,11 @@
       </c>
     </row>
     <row r="113" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B113" s="12">
-        <v>97</v>
+      <c r="B113" s="10">
+        <v>98</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="4" t="s">
@@ -3553,10 +3556,10 @@
     </row>
     <row r="114" spans="2:7" ht="51.05" customHeight="1">
       <c r="B114" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="4" t="s">
@@ -3570,10 +3573,10 @@
     </row>
     <row r="115" spans="2:7" ht="51.05" customHeight="1">
       <c r="B115" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="4" t="s">
@@ -3586,11 +3589,11 @@
       </c>
     </row>
     <row r="116" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B116" s="10">
-        <v>100</v>
+      <c r="B116" s="12">
+        <v>101</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="4" t="s">
@@ -3603,11 +3606,11 @@
       </c>
     </row>
     <row r="117" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B117" s="12">
-        <v>101</v>
+      <c r="B117" s="10">
+        <v>102</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="4" t="s">
@@ -3620,11 +3623,11 @@
       </c>
     </row>
     <row r="118" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B118" s="10">
-        <v>102</v>
+      <c r="B118" s="12">
+        <v>103</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="4" t="s">
@@ -3637,77 +3640,79 @@
       </c>
     </row>
     <row r="119" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B119" s="12">
-        <v>103</v>
+      <c r="B119" s="10">
+        <v>30</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
       <c r="E119" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F119" s="7"/>
+      <c r="F119" s="7">
+        <v>1411.2120971147672</v>
+      </c>
       <c r="G119" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2822.4241942295344</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="51.05" customHeight="1">
       <c r="B120" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D120" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F120" s="7">
-        <v>1411.2120971147672</v>
+        <v>1612.8138252740198</v>
       </c>
       <c r="G120" s="5">
         <f t="shared" si="1"/>
-        <v>2822.4241942295344</v>
+        <v>12902.510602192158</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="51.05" customHeight="1">
       <c r="B121" s="10">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D121" s="6">
-        <v>8</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D121" s="6"/>
       <c r="E121" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F121" s="7">
-        <v>1612.8138252740198</v>
+        <v>2052.6721412578427</v>
       </c>
       <c r="G121" s="5">
         <f t="shared" si="1"/>
-        <v>12902.510602192158</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B122" s="10">
-        <v>106</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="45.15">
+      <c r="B122" s="12">
+        <v>107</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F122" s="7">
-        <v>2052.6721412578427</v>
+        <v>2508.8215059818081</v>
       </c>
       <c r="G122" s="5">
         <f t="shared" si="1"/>
@@ -3715,37 +3720,37 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="45.15">
-      <c r="B123" s="12">
-        <v>107</v>
+      <c r="B123" s="10">
+        <v>108</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F123" s="7">
-        <v>2508.8215059818081</v>
+        <v>4310.3471656918127</v>
       </c>
       <c r="G123" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="45.15">
-      <c r="B124" s="10">
-        <v>108</v>
+    <row r="124" spans="2:7" ht="51.05" customHeight="1">
+      <c r="B124" s="12">
+        <v>109</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F124" s="7">
-        <v>4310.3471656918127</v>
+        <v>3926.8333072740197</v>
       </c>
       <c r="G124" s="5">
         <f t="shared" si="1"/>
@@ -3753,72 +3758,70 @@
       </c>
     </row>
     <row r="125" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B125" s="12">
-        <v>109</v>
+      <c r="B125" s="10">
+        <v>32</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
       <c r="E125" s="4" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="F125" s="7">
-        <v>3926.8333072740197</v>
+        <v>13881.669837786056</v>
       </c>
       <c r="G125" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13881.669837786056</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="51.05" customHeight="1">
       <c r="B126" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="D126" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="F126" s="7">
-        <v>13881.669837786056</v>
+        <v>3216.7478105065543</v>
       </c>
       <c r="G126" s="5">
         <f t="shared" si="1"/>
-        <v>13881.669837786056</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" ht="51.05" customHeight="1">
+        <v>9650.2434315196624</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B127" s="10">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D127" s="6">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D127" s="6"/>
       <c r="E127" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F127" s="7">
-        <v>3216.7478105065543</v>
-      </c>
+      <c r="F127" s="7"/>
       <c r="G127" s="5">
         <f t="shared" si="1"/>
-        <v>9650.2434315196624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B128" s="10">
-        <v>112</v>
+      <c r="B128" s="12">
+        <v>113</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="4" t="s">
@@ -3831,49 +3834,49 @@
       </c>
     </row>
     <row r="129" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B129" s="12">
-        <v>113</v>
+      <c r="B129" s="10">
+        <v>34</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="D129" s="6">
+        <v>3</v>
+      </c>
       <c r="E129" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F129" s="7"/>
+      <c r="F129" s="7">
+        <v>757.98662820906043</v>
+      </c>
       <c r="G129" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2273.9598846271811</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B130" s="10">
-        <v>34</v>
+      <c r="B130" s="12">
+        <v>115</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D130" s="6">
-        <v>3</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D130" s="6"/>
       <c r="E130" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F130" s="7">
-        <v>757.98662820906043</v>
-      </c>
+      <c r="F130" s="7"/>
       <c r="G130" s="5">
         <f t="shared" si="1"/>
-        <v>2273.9598846271811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B131" s="12">
-        <v>115</v>
+      <c r="B131" s="10">
+        <v>116</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="4" t="s">
@@ -3885,12 +3888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:7" ht="34.950000000000003" customHeight="1">
+    <row r="132" spans="2:7" ht="51.05" customHeight="1">
       <c r="B132" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="4" t="s">
@@ -3902,581 +3905,583 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:7" ht="51.05" customHeight="1">
+    <row r="133" spans="2:7" ht="34.950000000000003" customHeight="1">
       <c r="B133" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F133" s="7"/>
+      <c r="F133" s="7">
+        <v>429.61951820906046</v>
+      </c>
       <c r="G133" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B134" s="10">
-        <v>118</v>
+    <row r="134" spans="2:7" ht="45.15">
+      <c r="B134" s="12">
+        <v>35</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="D134" s="6">
+        <v>11</v>
+      </c>
       <c r="E134" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F134" s="7">
-        <v>429.61951820906046</v>
+        <v>3008.391241646279</v>
       </c>
       <c r="G134" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" ht="45.15">
-      <c r="B135" s="12">
-        <v>35</v>
+        <v>33092.303658109071</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="34.950000000000003" customHeight="1">
+      <c r="B135" s="10">
+        <v>36</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D135" s="6">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F135" s="7">
-        <v>3008.391241646279</v>
+        <v>1531.7080917674496</v>
       </c>
       <c r="G135" s="5">
         <f t="shared" si="1"/>
-        <v>33092.303658109071</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B136" s="10">
-        <v>36</v>
+        <v>50546.367028325833</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="51.05" customHeight="1">
+      <c r="B136" s="12">
+        <v>37</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="D136" s="6">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F136" s="7">
-        <v>1531.7080917674496</v>
+        <v>879.91035140612394</v>
       </c>
       <c r="G136" s="5">
         <f t="shared" si="1"/>
-        <v>50546.367028325833</v>
+        <v>327326.65072307811</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B137" s="12">
-        <v>37</v>
+      <c r="B137" s="10">
+        <v>38</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D137" s="6">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F137" s="7">
-        <v>879.91035140612394</v>
+        <v>1143.0777334061238</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="1"/>
-        <v>327326.65072307811</v>
+        <f t="shared" ref="G137:G170" si="2">$D137*F137</f>
+        <v>46866.187069651074</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="51.05" customHeight="1">
       <c r="B138" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D138" s="6">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>167</v>
       </c>
       <c r="F138" s="7">
-        <v>1143.0777334061238</v>
+        <v>1285.3195394061238</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" ref="G138:G171" si="2">$D138*F138</f>
-        <v>46866.187069651074</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" ht="51.05" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>6426.5976970306192</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="30.1">
       <c r="B139" s="10">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D139" s="6">
-        <v>5</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D139" s="6"/>
       <c r="E139" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F139" s="7">
-        <v>1285.3195394061238</v>
+        <v>235.67699669129547</v>
       </c>
       <c r="G139" s="5">
         <f t="shared" si="2"/>
-        <v>6426.5976970306192</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" ht="30.1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" ht="45.15">
       <c r="B140" s="10">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F140" s="7">
-        <v>235.67699669129547</v>
+        <v>406.85741307729535</v>
       </c>
       <c r="G140" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="45.15">
+    <row r="141" spans="2:7" ht="34.15" customHeight="1">
       <c r="B141" s="10">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D141" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="D141" s="6">
+        <v>418</v>
+      </c>
       <c r="E141" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F141" s="7">
-        <v>406.85741307729535</v>
+        <v>96.136613294724583</v>
       </c>
       <c r="G141" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" ht="34.15" customHeight="1">
+        <v>40185.104357194876</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="45.15">
       <c r="B142" s="10">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D142" s="6">
-        <v>418</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D142" s="6"/>
       <c r="E142" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F142" s="7">
-        <v>96.136613294724583</v>
+        <v>1478.9022372179438</v>
       </c>
       <c r="G142" s="5">
         <f t="shared" si="2"/>
-        <v>40185.104357194876</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" ht="45.15">
-      <c r="B143" s="10">
-        <v>124</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="30.1">
+      <c r="B143" s="12">
+        <v>125</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F143" s="7">
-        <v>1478.9022372179438</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F143" s="7"/>
       <c r="G143" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="30.1">
-      <c r="B144" s="12">
-        <v>125</v>
+      <c r="B144" s="10">
+        <v>126</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F144" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="F144" s="7">
+        <v>2330.7612086809268</v>
+      </c>
       <c r="G144" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:7" ht="30.1">
-      <c r="B145" s="10">
-        <v>126</v>
+    <row r="145" spans="2:7">
+      <c r="B145" s="12">
+        <v>41</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D145" s="6">
+        <v>37</v>
+      </c>
       <c r="E145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F145" s="7">
-        <v>2330.7612086809268</v>
+        <v>1622.2451130306688</v>
       </c>
       <c r="G145" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="12">
-        <v>41</v>
+        <v>60023.069182134743</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" ht="18" customHeight="1">
+      <c r="B146" s="10">
+        <v>42</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D146" s="6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="F146" s="7">
-        <v>1622.2451130306688</v>
+        <v>153.37231868021942</v>
       </c>
       <c r="G146" s="5">
         <f t="shared" si="2"/>
-        <v>60023.069182134743</v>
+        <v>5214.6588351274604</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="18" customHeight="1">
       <c r="B147" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D147" s="6">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F147" s="7">
-        <v>153.37231868021942</v>
+        <v>204.42964619073587</v>
       </c>
       <c r="G147" s="5">
         <f t="shared" si="2"/>
-        <v>5214.6588351274604</v>
+        <v>4906.3115085776608</v>
       </c>
     </row>
     <row r="148" spans="2:7" ht="18" customHeight="1">
       <c r="B148" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="D148" s="6">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F148" s="7">
-        <v>204.42964619073587</v>
+        <v>132.7590683347762</v>
       </c>
       <c r="G148" s="5">
         <f t="shared" si="2"/>
-        <v>4906.3115085776608</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" ht="18" customHeight="1">
-      <c r="B149" s="10">
-        <v>44</v>
+        <v>9027.6166467647818</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="51.05" customHeight="1">
+      <c r="B149" s="12">
+        <v>45</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D149" s="6">
-        <v>68</v>
+        <v>1365</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F149" s="7">
-        <v>132.7590683347762</v>
+        <v>13.674443125137383</v>
       </c>
       <c r="G149" s="5">
         <f t="shared" si="2"/>
-        <v>9027.6166467647818</v>
+        <v>18665.614865812528</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B150" s="12">
-        <v>45</v>
+      <c r="B150" s="10">
+        <v>46</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D150" s="6">
-        <v>1365</v>
+        <v>20</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F150" s="7">
-        <v>13.674443125137383</v>
+        <v>259.61907298259968</v>
       </c>
       <c r="G150" s="5">
         <f t="shared" si="2"/>
-        <v>18665.614865812528</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" ht="51.05" customHeight="1">
-      <c r="B151" s="10">
-        <v>46</v>
+        <v>5192.3814596519933</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="34.950000000000003" customHeight="1">
+      <c r="B151" s="12">
+        <v>47</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D151" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F151" s="7">
-        <v>259.61907298259968</v>
+        <v>1855.7785813779815</v>
       </c>
       <c r="G151" s="5">
         <f t="shared" si="2"/>
-        <v>5192.3814596519933</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B152" s="12">
-        <v>47</v>
+        <v>5567.3357441339449</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" ht="47.3" customHeight="1">
+      <c r="B152" s="10">
+        <v>48</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D152" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="F152" s="7">
-        <v>1855.7785813779815</v>
+        <v>518.98524900278335</v>
       </c>
       <c r="G152" s="5">
         <f t="shared" si="2"/>
-        <v>5567.3357441339449</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" ht="47.3" customHeight="1">
+        <v>6746.8082370361835</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="45.15">
       <c r="B153" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D153" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F153" s="7">
-        <v>518.98524900278335</v>
+        <v>9237.95668283136</v>
       </c>
       <c r="G153" s="5">
         <f t="shared" si="2"/>
-        <v>6746.8082370361835</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" ht="45.15">
+        <v>9237.95668283136</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="30.1">
       <c r="B154" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D154" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F154" s="7">
-        <v>9237.95668283136</v>
+        <v>1229.807708518573</v>
       </c>
       <c r="G154" s="5">
         <f t="shared" si="2"/>
-        <v>9237.95668283136</v>
+        <v>12298.077085185731</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="30.1">
-      <c r="B155" s="10">
-        <v>50</v>
+      <c r="B155" s="12">
+        <v>51</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D155" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="F155" s="7">
-        <v>1229.807708518573</v>
+        <v>238.01400951919911</v>
       </c>
       <c r="G155" s="5">
         <f t="shared" si="2"/>
-        <v>12298.077085185731</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" ht="30.1">
-      <c r="B156" s="12">
-        <v>51</v>
+        <v>4522.2661808647827</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="34.950000000000003" customHeight="1">
+      <c r="B156" s="10">
+        <v>138</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D156" s="6">
-        <v>19</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D156" s="6"/>
       <c r="E156" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F156" s="7">
-        <v>238.01400951919911</v>
-      </c>
+      <c r="F156" s="7"/>
       <c r="G156" s="5">
         <f t="shared" si="2"/>
-        <v>4522.2661808647827</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B157" s="10">
-        <v>138</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" ht="18" customHeight="1">
+      <c r="B157" s="12">
+        <v>52</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D157" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="D157" s="6">
+        <v>1</v>
+      </c>
       <c r="E157" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F157" s="7"/>
+      <c r="F157" s="7">
+        <v>970.74427302625463</v>
+      </c>
       <c r="G157" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>970.74427302625463</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="18" customHeight="1">
-      <c r="B158" s="12">
-        <v>52</v>
+      <c r="B158" s="10">
+        <v>53</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D158" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="F158" s="7">
-        <v>970.74427302625463</v>
+        <v>328.05201885965522</v>
       </c>
       <c r="G158" s="5">
         <f t="shared" si="2"/>
-        <v>970.74427302625463</v>
+        <v>2952.4681697368969</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="18" customHeight="1">
       <c r="B159" s="10">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D159" s="6">
-        <v>9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D159" s="6"/>
       <c r="E159" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F159" s="7">
-        <v>328.05201885965522</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F159" s="7"/>
       <c r="G159" s="5">
         <f t="shared" si="2"/>
-        <v>2952.4681697368969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="2:7" ht="18" customHeight="1">
       <c r="B160" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="F160" s="7">
+        <v>328.25613673909868</v>
+      </c>
       <c r="G160" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="2:7" ht="18" customHeight="1">
-      <c r="B161" s="10">
-        <v>142</v>
+      <c r="B161" s="12">
+        <v>143</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F161" s="7">
-        <v>328.25613673909868</v>
+        <v>569.21126503885068</v>
       </c>
       <c r="G161" s="5">
         <f t="shared" si="2"/>
@@ -4484,30 +4489,28 @@
       </c>
     </row>
     <row r="162" spans="2:7" ht="18" customHeight="1">
-      <c r="B162" s="12">
-        <v>143</v>
+      <c r="B162" s="10">
+        <v>144</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F162" s="7">
-        <v>569.21126503885068</v>
-      </c>
+      <c r="F162" s="7"/>
       <c r="G162" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="18" customHeight="1">
-      <c r="B163" s="10">
-        <v>144</v>
+      <c r="B163" s="12">
+        <v>145</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="4" t="s">
@@ -4519,50 +4522,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:7" ht="18" customHeight="1">
-      <c r="B164" s="12">
-        <v>145</v>
+    <row r="164" spans="2:7" ht="24.05" customHeight="1">
+      <c r="B164" s="10">
+        <v>54</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D164" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="D164" s="6">
+        <v>9</v>
+      </c>
       <c r="E164" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F164" s="7"/>
+      <c r="F164" s="7">
+        <v>855.74234153909845</v>
+      </c>
       <c r="G164" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7701.6810738518861</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="24.05" customHeight="1">
       <c r="B165" s="10">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D165" s="6">
-        <v>9</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D165" s="6"/>
       <c r="E165" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F165" s="7">
-        <v>855.74234153909845</v>
-      </c>
+      <c r="F165" s="7"/>
       <c r="G165" s="5">
         <f t="shared" si="2"/>
-        <v>7701.6810738518861</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" ht="24.05" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" ht="25.55" customHeight="1">
       <c r="B166" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="4" t="s">
@@ -4574,136 +4577,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:7" ht="25.55" customHeight="1">
-      <c r="B167" s="10">
-        <v>148</v>
+    <row r="167" spans="2:7" ht="34.950000000000003" customHeight="1">
+      <c r="B167" s="12">
+        <v>55</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D167" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="D167" s="6">
+        <v>11</v>
+      </c>
       <c r="E167" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F167" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="F167" s="7">
+        <v>510.08335159585874</v>
+      </c>
       <c r="G167" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" ht="34.950000000000003" customHeight="1">
-      <c r="B168" s="12">
-        <v>55</v>
+        <v>5610.9168675544461</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="45.15">
+      <c r="B168" s="10">
+        <v>150</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D168" s="6">
-        <v>11</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D168" s="6"/>
       <c r="E168" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F168" s="7">
-        <v>510.08335159585874</v>
+        <v>9161.5827936034748</v>
       </c>
       <c r="G168" s="5">
         <f t="shared" si="2"/>
-        <v>5610.9168675544461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="45.15">
-      <c r="B169" s="10">
-        <v>150</v>
+      <c r="B169" s="12">
+        <v>151</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F169" s="7">
-        <v>9161.5827936034748</v>
+        <v>9161.5853187568719</v>
       </c>
       <c r="G169" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:7" ht="45.15">
-      <c r="B170" s="12">
-        <v>151</v>
+    <row r="170" spans="2:7" ht="30.1">
+      <c r="B170" s="10">
+        <v>152</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="7">
-        <v>9161.5853187568719</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F170" s="7"/>
       <c r="G170" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:7" ht="30.1">
-      <c r="B171" s="10">
-        <v>152</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D171" s="6"/>
-      <c r="E171" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B172" s="21" t="s">
+    <row r="171" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B171" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="13">
-        <f>SUM(G9:G171)</f>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="13">
+        <f>SUM(G8:G170)</f>
         <v>1609110.2312576526</v>
       </c>
     </row>
-    <row r="174" spans="2:7">
-      <c r="C174" s="1" t="s">
+    <row r="173" spans="2:7">
+      <c r="C173" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="3:4">
-      <c r="C178" s="1" t="s">
+    <row r="177" spans="3:4">
+      <c r="C177" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C8:F172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="11">
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="F6:G7"/>
+  <autoFilter ref="C7:F171" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="8">
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F4:G4"/>
@@ -4711,7 +4694,7 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:G171">
+  <conditionalFormatting sqref="G8:G170">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
